--- a/assets/example_bag.xlsx
+++ b/assets/example_bag.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D2" s="15">
         <v>0</v>
@@ -616,10 +616,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D3" s="15">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D4" s="15">
         <v>0</v>
@@ -644,10 +644,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C5" s="15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D6" s="15">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C8" s="15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
@@ -714,10 +714,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
